--- a/output_data/charts/capacity-LoganCounty-0500000US39091.xlsx
+++ b/output_data/charts/capacity-LoganCounty-0500000US39091.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -862,46 +862,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1700</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9460</c:v>
+                  <c:v>9.460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15200</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66420</c:v>
+                  <c:v>66.42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62310</c:v>
+                  <c:v>62.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55480</c:v>
+                  <c:v>55.48</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98520</c:v>
+                  <c:v>98.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>139945</c:v>
+                  <c:v>139.945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72180</c:v>
+                  <c:v>72.18000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,7 +1241,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>16000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1700</v>
+        <v>1.7</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>9460</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>8000</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>12000</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>15200</v>
+        <v>15.2</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>66420</v>
+        <v>66.42</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>62310</v>
+        <v>62.31</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>55480</v>
+        <v>55.48</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>98520</v>
+        <v>98.52</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>139945</v>
+        <v>139.945</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>72180</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-LoganCounty-0500000US39091.xlsx
+++ b/output_data/charts/capacity-LoganCounty-0500000US39091.xlsx
@@ -901,7 +901,7 @@
                   <c:v>139.945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.18000000000001</c:v>
+                  <c:v>91.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>72.18000000000001</v>
+        <v>91.36</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
